--- a/Accounts/UploadedFiles/2017data.xlsx
+++ b/Accounts/UploadedFiles/2017data.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
-  <si>
-    <t>DGKC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>CS</t>
   </si>
@@ -66,7 +63,10 @@
     <t>Accumulated profit</t>
   </si>
   <si>
-    <t>2016</t>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
 </sst>
 </file>
@@ -75,7 +75,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,33 +144,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -467,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -482,36 +469,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>16</v>
@@ -522,16 +509,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -540,33 +527,35 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8"/>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9">
-        <v>10000000</v>
+      <c r="F4" s="3">
+        <v>4381191</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickTop="1">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>13</v>
@@ -575,51 +564,32 @@
         <v>16</v>
       </c>
       <c r="F5" s="3">
-        <v>4381191</v>
+        <v>34722352</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3">
-        <v>34722352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="F6" s="4">
         <v>37884238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
